--- a/exports/emotion_scores_comparison_id_0043_neg.xlsx
+++ b/exports/emotion_scores_comparison_id_0043_neg.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.369</v>
+        <v>0.42</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.243</v>
+        <v>0.27</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.109</v>
+        <v>0.1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.112</v>
+        <v>0.11</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="6">
@@ -508,12 +508,8 @@
           <t>Disgust</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.081</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -522,10 +518,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
